--- a/data/label.xlsx
+++ b/data/label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/722e2bef54c89bdd/바탕 화면/Python/label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DD61AB-C045-45BE-892B-161AF99EF145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{89DD61AB-C045-45BE-892B-161AF99EF145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E222021F-58E5-4E46-AD7A-3AFB6909A71C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{980EE991-7EB1-4A9A-9BD7-5845304D5BD3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{980EE991-7EB1-4A9A-9BD7-5845304D5BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,68 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>고대구로병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>품목1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품목2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>품목3</t>
-  </si>
-  <si>
-    <t>품목4</t>
-  </si>
-  <si>
-    <t>품목5</t>
-  </si>
-  <si>
-    <t>품목6</t>
-  </si>
-  <si>
-    <t>품목7</t>
-  </si>
-  <si>
-    <t>품목8</t>
-  </si>
-  <si>
-    <t>품목9</t>
-  </si>
-  <si>
-    <t>품목10</t>
-  </si>
-  <si>
-    <t>품목11</t>
-  </si>
-  <si>
-    <t>품목12</t>
-  </si>
-  <si>
-    <t>품목13</t>
-  </si>
-  <si>
-    <t>품목14</t>
-  </si>
-  <si>
-    <t>품목15</t>
-  </si>
-  <si>
-    <t>품목16</t>
-  </si>
-  <si>
-    <t>품목17</t>
-  </si>
-  <si>
-    <t>품목18</t>
-  </si>
-  <si>
     <t>경희대병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +101,549 @@
   </si>
   <si>
     <t>상품18</t>
+  </si>
+  <si>
+    <t>고무줄시트</t>
+  </si>
+  <si>
+    <t>대시트</t>
+  </si>
+  <si>
+    <t>반시트</t>
+  </si>
+  <si>
+    <t>진찰대카바(끈)</t>
+  </si>
+  <si>
+    <t>이송덮개(재활용)대</t>
+  </si>
+  <si>
+    <t>이송덮개(재활용)중</t>
+  </si>
+  <si>
+    <t>고무줄카바(하늘색)</t>
+  </si>
+  <si>
+    <t>배갯잇(백색)</t>
+  </si>
+  <si>
+    <t>배갯잇(분홍색)</t>
+  </si>
+  <si>
+    <t>산모복</t>
+  </si>
+  <si>
+    <t>환의(상)</t>
+  </si>
+  <si>
+    <t>환의(하)</t>
+  </si>
+  <si>
+    <t>소아(상)</t>
+  </si>
+  <si>
+    <t>소아(하)</t>
+  </si>
+  <si>
+    <t>정형(상)</t>
+  </si>
+  <si>
+    <t>정형(하)</t>
+  </si>
+  <si>
+    <t>소아정형(상)</t>
+  </si>
+  <si>
+    <t>소아정형(하)</t>
+  </si>
+  <si>
+    <t>환의조끼</t>
+  </si>
+  <si>
+    <t>스포츠의학(상)</t>
+  </si>
+  <si>
+    <t>스포츠의학(하)</t>
+  </si>
+  <si>
+    <t>훙부외과 반바지</t>
+  </si>
+  <si>
+    <t>심장기능검사실 반바지</t>
+  </si>
+  <si>
+    <t>산부인과 치마</t>
+  </si>
+  <si>
+    <t>산부인과 덮개</t>
+  </si>
+  <si>
+    <t>51병동(분만실) 치마</t>
+  </si>
+  <si>
+    <t>건강증진 치마</t>
+  </si>
+  <si>
+    <t>방종 치마</t>
+  </si>
+  <si>
+    <t>암병원 치마</t>
+  </si>
+  <si>
+    <t>재활 치마</t>
+  </si>
+  <si>
+    <t>류마티스 치마</t>
+  </si>
+  <si>
+    <t>비뇨기과 치마</t>
+  </si>
+  <si>
+    <t>성형외과 치마</t>
+  </si>
+  <si>
+    <t>피부과 치마</t>
+  </si>
+  <si>
+    <t>공단검진 치마</t>
+  </si>
+  <si>
+    <t>담요(면)</t>
+  </si>
+  <si>
+    <t>담요(하늘색)</t>
+  </si>
+  <si>
+    <t>면담요(재활용)</t>
+  </si>
+  <si>
+    <t>이불(파랑)</t>
+  </si>
+  <si>
+    <t>숙소이불</t>
+  </si>
+  <si>
+    <t>특실베갯잇</t>
+  </si>
+  <si>
+    <t>특실담요</t>
+  </si>
+  <si>
+    <t>특실카바</t>
+  </si>
+  <si>
+    <t>85병동 이불</t>
+  </si>
+  <si>
+    <t>85병동 카바</t>
+  </si>
+  <si>
+    <t>85병동 베갯잇</t>
+  </si>
+  <si>
+    <t>85병동 가운</t>
+  </si>
+  <si>
+    <t>85병동VIP 수건</t>
+  </si>
+  <si>
+    <t>85w 작은타올</t>
+  </si>
+  <si>
+    <t>새롬교육관 이불카바</t>
+  </si>
+  <si>
+    <t>새롬교육관 토퍼</t>
+  </si>
+  <si>
+    <t>새롬교육관 베갯잇</t>
+  </si>
+  <si>
+    <t>93병동VIP 이불</t>
+  </si>
+  <si>
+    <t>93병동VIP 카바</t>
+  </si>
+  <si>
+    <t>93병동VIP 매트</t>
+  </si>
+  <si>
+    <t>93병동VIP 베갯잇</t>
+  </si>
+  <si>
+    <t>93병동VIP 가운</t>
+  </si>
+  <si>
+    <t>93병동VIP 수건</t>
+  </si>
+  <si>
+    <t>수면검사실(이불)</t>
+  </si>
+  <si>
+    <t>수면검사실(시트)</t>
+  </si>
+  <si>
+    <t>수면검사실(카바)</t>
+  </si>
+  <si>
+    <t>의사가운(긴흰가운)</t>
+  </si>
+  <si>
+    <t>의사가운(반흰가운)</t>
+  </si>
+  <si>
+    <t>의사가운덧가운( 파랑,곤색,회색등)</t>
+  </si>
+  <si>
+    <t>교수님 위생복(상)</t>
+  </si>
+  <si>
+    <t>교수님 위생복(하)</t>
+  </si>
+  <si>
+    <t>전공의,의사 위생복(상)</t>
+  </si>
+  <si>
+    <t>전공의,의사 위생복(하)</t>
+  </si>
+  <si>
+    <t>응급의학과 위생복 (상)</t>
+  </si>
+  <si>
+    <t>응급의학과 위생복 (하)</t>
+  </si>
+  <si>
+    <t>기사 위생복 (상)</t>
+  </si>
+  <si>
+    <t>기사 위생복 (하)</t>
+  </si>
+  <si>
+    <t>심혈관(상)</t>
+  </si>
+  <si>
+    <t>심혈관(하)</t>
+  </si>
+  <si>
+    <t>유방검진복</t>
+  </si>
+  <si>
+    <t>검진가운(상)</t>
+  </si>
+  <si>
+    <t>검진가운(하)</t>
+  </si>
+  <si>
+    <t>건진센타가운(하늘색, 상)</t>
+  </si>
+  <si>
+    <t>건진센타가운(하늘색, 하)</t>
+  </si>
+  <si>
+    <t>영상의학가운(청색, 상)</t>
+  </si>
+  <si>
+    <t>영상의학가운(청색, 하)</t>
+  </si>
+  <si>
+    <t>영상의학가운(붉은색, 상)</t>
+  </si>
+  <si>
+    <t>영상의학가운(붉은색, 하)</t>
+  </si>
+  <si>
+    <t>영상의학가운(연두색, 상)</t>
+  </si>
+  <si>
+    <t>영상의학가운(연두색 반바지)</t>
+  </si>
+  <si>
+    <t>영상의학가운(분홍색, 상)</t>
+  </si>
+  <si>
+    <t>영상의학가운(분홍색, 하)</t>
+  </si>
+  <si>
+    <t>영상의학가운(회색)</t>
+  </si>
+  <si>
+    <t>공단검진가운</t>
+  </si>
+  <si>
+    <t>핵의학가운 상</t>
+  </si>
+  <si>
+    <t>핵의학가운 하</t>
+  </si>
+  <si>
+    <t>방사선종양학과 가운 상</t>
+  </si>
+  <si>
+    <t>방사선종양학과 가운 하</t>
+  </si>
+  <si>
+    <t>청색 실크 원피스</t>
+  </si>
+  <si>
+    <t>청색 면원피스</t>
+  </si>
+  <si>
+    <t>1번포(청)</t>
+  </si>
+  <si>
+    <t>1번포(백)</t>
+  </si>
+  <si>
+    <t>3번포</t>
+  </si>
+  <si>
+    <t>거즈포(백)</t>
+  </si>
+  <si>
+    <t>치과포(청)</t>
+  </si>
+  <si>
+    <t>수술가운</t>
+  </si>
+  <si>
+    <t>신생저고리</t>
+  </si>
+  <si>
+    <t>신생아이불</t>
+  </si>
+  <si>
+    <t>융포</t>
+  </si>
+  <si>
+    <t>EP포(백색대공)</t>
+  </si>
+  <si>
+    <t>전신유공(청)</t>
+  </si>
+  <si>
+    <t>전신유공(녹) 대</t>
+  </si>
+  <si>
+    <t>전신유공(녹) 소</t>
+  </si>
+  <si>
+    <t>자루(백색 면)</t>
+  </si>
+  <si>
+    <t>자루(홍색)</t>
+  </si>
+  <si>
+    <t>자루(청색)</t>
+  </si>
+  <si>
+    <t>커튼(특수부서,외래,70병동등)</t>
+  </si>
+  <si>
+    <t>커튼 LB</t>
+  </si>
+  <si>
+    <t>커튼 SB</t>
+  </si>
+  <si>
+    <t>가죽포</t>
+  </si>
+  <si>
+    <t>40수 수술복(상, 남)</t>
+  </si>
+  <si>
+    <t>40수 수술복(하, 남)</t>
+  </si>
+  <si>
+    <t>40수 수술복(상, 여)</t>
+  </si>
+  <si>
+    <t>40수 수술복(하, 여)</t>
+  </si>
+  <si>
+    <t>16수 수술복(상, 남)</t>
+  </si>
+  <si>
+    <t>16수 수술복(하, 남)</t>
+  </si>
+  <si>
+    <t>16수 수술복(상, 여)</t>
+  </si>
+  <si>
+    <t>16수 수술복(하, 여)</t>
+  </si>
+  <si>
+    <t>청보라 청내의(상)</t>
+  </si>
+  <si>
+    <t>청보라 청내의(하)</t>
+  </si>
+  <si>
+    <t>분홍 청내의(상)</t>
+  </si>
+  <si>
+    <t>분홍 청내의(하)</t>
+  </si>
+  <si>
+    <t>녹색 청내의(상)</t>
+  </si>
+  <si>
+    <t>녹색 청내의(하)</t>
+  </si>
+  <si>
+    <t>내시경바지</t>
+  </si>
+  <si>
+    <t>암병원 대장바지</t>
+  </si>
+  <si>
+    <t>건진대장바지</t>
+  </si>
+  <si>
+    <t>스킨타올(청색)</t>
+  </si>
+  <si>
+    <t>스킨타올(분홍색)</t>
+  </si>
+  <si>
+    <t>공급실깔개(재활용)</t>
+  </si>
+  <si>
+    <t>유공포(원형)</t>
+  </si>
+  <si>
+    <t>유공포(치과)</t>
+  </si>
+  <si>
+    <t>버선포</t>
+  </si>
+  <si>
+    <t>분만 버선</t>
+  </si>
+  <si>
+    <t>조각포(재활용) 대</t>
+  </si>
+  <si>
+    <t>조각포(재활용) 중</t>
+  </si>
+  <si>
+    <t>조각포(재활용) 소</t>
+  </si>
+  <si>
+    <t>포셉포</t>
+  </si>
+  <si>
+    <t>얼음주머니</t>
+  </si>
+  <si>
+    <t>CT실 침낭</t>
+  </si>
+  <si>
+    <t>자원봉사자 가운</t>
+  </si>
+  <si>
+    <t>방진복</t>
+  </si>
+  <si>
+    <t>인큐베이터카바</t>
+  </si>
+  <si>
+    <t>NICU손싸개</t>
+  </si>
+  <si>
+    <t>발싸개</t>
+  </si>
+  <si>
+    <t>조끼(백색,면)</t>
+  </si>
+  <si>
+    <t>모자</t>
+  </si>
+  <si>
+    <t>마스크</t>
+  </si>
+  <si>
+    <t>물리실타올</t>
+  </si>
+  <si>
+    <t>신생타올(노랑,분홍)</t>
+  </si>
+  <si>
+    <t>신생아실 정사각타올</t>
+  </si>
+  <si>
+    <t>반토막타올</t>
+  </si>
+  <si>
+    <t>수술실타올</t>
+  </si>
+  <si>
+    <t>교수연구동 타올 대</t>
+  </si>
+  <si>
+    <t>교수연구동 타올 중</t>
+  </si>
+  <si>
+    <t>숙소타올 대</t>
+  </si>
+  <si>
+    <t>숙소타올 중</t>
+  </si>
+  <si>
+    <t>뇌파타올</t>
+  </si>
+  <si>
+    <t>스포츠타올</t>
+  </si>
+  <si>
+    <t>심혈관특수검사실 타올</t>
+  </si>
+  <si>
+    <t>병실 정사각타올</t>
+  </si>
+  <si>
+    <t>임상연구병동 타올</t>
+  </si>
+  <si>
+    <t>기타 타월</t>
+  </si>
+  <si>
+    <t>링거즈포</t>
+  </si>
+  <si>
+    <t>대야포</t>
+  </si>
+  <si>
+    <t>상의(근무복)</t>
+  </si>
+  <si>
+    <t>하의(근무복)</t>
+  </si>
+  <si>
+    <t>자켓(근무복)</t>
+  </si>
+  <si>
+    <t>덧가운(근무복)</t>
+  </si>
+  <si>
+    <t>가운(근무복)</t>
+  </si>
+  <si>
+    <t>수술실 기계포</t>
+  </si>
+  <si>
+    <t>90병동 쟈켓</t>
+  </si>
+  <si>
+    <t>총무팀 테이블포</t>
+  </si>
+  <si>
+    <t>카트카바 카키색</t>
+  </si>
+  <si>
+    <t>카트카바 보라색</t>
+  </si>
+  <si>
+    <t>카트카바 주황색</t>
   </si>
 </sst>
 </file>
@@ -540,164 +1027,1526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA7BB43-E7D6-4697-8B43-8431B4C42435}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/label.xlsx
+++ b/data/label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/722e2bef54c89bdd/바탕 화면/Python/label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{89DD61AB-C045-45BE-892B-161AF99EF145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5592919B-9398-4197-8C15-49F81C323B05}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{89DD61AB-C045-45BE-892B-161AF99EF145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ED71B72-E484-4F07-9E1F-D3E2130AB1FF}"/>
   <bookViews>
-    <workbookView xWindow="7764" yWindow="1128" windowWidth="17280" windowHeight="8880" xr2:uid="{980EE991-7EB1-4A9A-9BD7-5845304D5BD3}"/>
+    <workbookView xWindow="5352" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{980EE991-7EB1-4A9A-9BD7-5845304D5BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2422,8 +2422,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2523,8 +2524,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2874,3416 +2881,3416 @@
   <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.796875" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="2" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="2" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="2" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="2" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="2" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="2" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="2" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="2" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="2" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="2" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="2" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="2" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="2" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="2" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="2" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="2" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="2" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="2" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="2" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="2" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="2" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="2" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="2" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="2" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="2" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="2" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="2" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="2" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="2" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="2" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="2" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="2" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="2" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="2" t="s">
         <v>182</v>
       </c>
     </row>
